--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9602230701259973</v>
+        <v>0.9614161200387106</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7709740512017234</v>
+        <v>0.7770505887847964</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8332759102370219</v>
+        <v>0.9966247025883528</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6498227721077569</v>
+        <v>0.9851326791367697</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7458606951141313</v>
+        <v>0.9951482422916204</v>
       </c>
       <c r="G2" t="n">
-        <v>0.265988513223377</v>
+        <v>0.2580105829635732</v>
       </c>
       <c r="H2" t="n">
-        <v>1.531497574181603</v>
+        <v>1.490863739383711</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2127131457932588</v>
+        <v>0.01460792395376856</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6114361093139902</v>
+        <v>0.01135958405665837</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4120746275536245</v>
+        <v>0.01298377631945209</v>
       </c>
       <c r="L2" t="n">
-        <v>1.470319691700764</v>
+        <v>0.5328433010551393</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5157407422565886</v>
+        <v>0.5079474214557774</v>
       </c>
       <c r="N2" t="n">
-        <v>1.019482577897471</v>
+        <v>1.018898226919815</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5376968933849671</v>
+        <v>0.5295717947832672</v>
       </c>
       <c r="P2" t="n">
-        <v>148.6486043090073</v>
+        <v>148.7095093513263</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.6265395243859</v>
+        <v>237.6874445667049</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.962839689182616</v>
+        <v>0.9673129173037339</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7699014492985143</v>
+        <v>0.7757579266188058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7879680153624918</v>
+        <v>0.9885149438569208</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6521567235984636</v>
+        <v>0.9510029718952659</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7292921378624722</v>
+        <v>0.9837182696855493</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2484911695433448</v>
+        <v>0.2185786725001079</v>
       </c>
       <c r="H3" t="n">
-        <v>1.538670068047239</v>
+        <v>1.499507777239851</v>
       </c>
       <c r="I3" t="n">
-        <v>0.270518738624701</v>
+        <v>0.04970608698478721</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6073608522580276</v>
+        <v>0.03743686333283651</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4389397441543192</v>
+        <v>0.04357149660036742</v>
       </c>
       <c r="L3" t="n">
-        <v>1.435239200892528</v>
+        <v>0.5291195737248854</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4984888860780597</v>
+        <v>0.467523980668487</v>
       </c>
       <c r="N3" t="n">
-        <v>1.018200968563617</v>
+        <v>1.016009999687967</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5197105899726526</v>
+        <v>0.4874274444336036</v>
       </c>
       <c r="P3" t="n">
-        <v>148.7846959382274</v>
+        <v>149.0412185440856</v>
       </c>
       <c r="Q3" t="n">
-        <v>237.762631153606</v>
+        <v>238.0191537594642</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.964639215345802</v>
+        <v>0.9713076162222154</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7686462825885604</v>
+        <v>0.7733764926566357</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7404130439273042</v>
+        <v>0.9777980064841248</v>
       </c>
       <c r="E4" t="n">
-        <v>0.655231323166989</v>
+        <v>0.906897680143026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7122382907525802</v>
+        <v>0.9687559420614447</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2364577298040638</v>
+        <v>0.191866102438325</v>
       </c>
       <c r="H4" t="n">
-        <v>1.547063373616212</v>
+        <v>1.515432437110378</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3311912400398716</v>
+        <v>0.09608783859544152</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6019923672506126</v>
+        <v>0.07113612721582188</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4665917348580835</v>
+        <v>0.08361214305602384</v>
       </c>
       <c r="L4" t="n">
-        <v>1.400789123665484</v>
+        <v>0.524774835666888</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4862691947924152</v>
+        <v>0.4380252303672986</v>
       </c>
       <c r="N4" t="n">
-        <v>1.017319567993893</v>
+        <v>1.014053412462588</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5069706811307301</v>
+        <v>0.4566728712612623</v>
       </c>
       <c r="P4" t="n">
-        <v>148.8839716387084</v>
+        <v>149.3019150667456</v>
       </c>
       <c r="Q4" t="n">
-        <v>237.8619068540871</v>
+        <v>238.2798502821243</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9657988681102514</v>
+        <v>0.9739375195622426</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7672660702881795</v>
+        <v>0.7703150322852654</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6914221159946865</v>
+        <v>0.9658314431751476</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6587422769530999</v>
+        <v>0.8584114162556495</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6948543613344469</v>
+        <v>0.9521578127098242</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2287031264284811</v>
+        <v>0.1742799266939717</v>
       </c>
       <c r="H5" t="n">
-        <v>1.556292859624153</v>
+        <v>1.53590443671046</v>
       </c>
       <c r="I5" t="n">
-        <v>0.393695791185977</v>
+        <v>0.1478778367752431</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5958619745466601</v>
+        <v>0.1081827340180042</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4947789381071553</v>
+        <v>0.1280303543056425</v>
       </c>
       <c r="L5" t="n">
-        <v>1.367172969063416</v>
+        <v>0.5201847087178531</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4782291568155178</v>
+        <v>0.4174684738923068</v>
       </c>
       <c r="N5" t="n">
-        <v>1.016751574803142</v>
+        <v>1.012765296540942</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4985883620919831</v>
+        <v>0.4352409711047779</v>
       </c>
       <c r="P5" t="n">
-        <v>148.9506610152237</v>
+        <v>149.4941849967103</v>
       </c>
       <c r="Q5" t="n">
-        <v>237.9285962306024</v>
+        <v>238.4721202120889</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9664576198424174</v>
+        <v>0.9755773581448534</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7657994975247764</v>
+        <v>0.766853537739135</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6419259278493098</v>
+        <v>0.953439094685931</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6623278857897206</v>
+        <v>0.8087227857146737</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6773119060502715</v>
+        <v>0.9350436702946648</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2242980505622139</v>
+        <v>0.1633143185412911</v>
       </c>
       <c r="H6" t="n">
-        <v>1.566099838445976</v>
+        <v>1.559051466679151</v>
       </c>
       <c r="I6" t="n">
-        <v>0.456844973167692</v>
+        <v>0.2015105873928338</v>
       </c>
       <c r="J6" t="n">
-        <v>0.589601228438807</v>
+        <v>0.1461480258471751</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5232231834034469</v>
+        <v>0.1738294667868569</v>
       </c>
       <c r="L6" t="n">
-        <v>1.334871449908937</v>
+        <v>0.515366746402192</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4736011513522891</v>
+        <v>0.4041216630438055</v>
       </c>
       <c r="N6" t="n">
-        <v>1.01642892089351</v>
+        <v>1.011962110296398</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4937633328548927</v>
+        <v>0.4213259588867486</v>
       </c>
       <c r="P6" t="n">
-        <v>148.989559057402</v>
+        <v>149.6241572008334</v>
       </c>
       <c r="Q6" t="n">
-        <v>237.9674942727806</v>
+        <v>238.6020924162121</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.966732157229962</v>
+        <v>0.9764934608839864</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7642836329534097</v>
+        <v>0.7631865627176898</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5928487034934504</v>
+        <v>0.9411161183823787</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6657704915372062</v>
+        <v>0.7596125927325535</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6598574164813724</v>
+        <v>0.9180682270769057</v>
       </c>
       <c r="G7" t="n">
-        <v>0.222462217787575</v>
+        <v>0.1571883353064433</v>
       </c>
       <c r="H7" t="n">
-        <v>1.576236431814619</v>
+        <v>1.583572545532422</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5194596246819239</v>
+        <v>0.2548431026565877</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5835901766156644</v>
+        <v>0.1836713543843853</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5515247965343745</v>
+        <v>0.2192574067027917</v>
       </c>
       <c r="L7" t="n">
-        <v>1.30420906007771</v>
+        <v>0.5105219133986088</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4716590058374535</v>
+        <v>0.396469841610233</v>
       </c>
       <c r="N7" t="n">
-        <v>1.016294453601651</v>
+        <v>1.011513406913966</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4917385061846951</v>
+        <v>0.4133483835732949</v>
       </c>
       <c r="P7" t="n">
-        <v>149.0059959989822</v>
+        <v>149.7006212092508</v>
       </c>
       <c r="Q7" t="n">
-        <v>237.9839312143608</v>
+        <v>238.6785564246295</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9667196703899043</v>
+        <v>0.9768803531051431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7627528036718539</v>
+        <v>0.7594513298634167</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5449991778003378</v>
+        <v>0.9291594042330847</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6689618911625606</v>
+        <v>0.7120883671482832</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6427504287562511</v>
+        <v>0.9016154322659777</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2225457173445375</v>
+        <v>0.1546011852420937</v>
       </c>
       <c r="H8" t="n">
-        <v>1.586473094269203</v>
+        <v>1.608550064828112</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5805079299950141</v>
+        <v>0.3065904747332301</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5780177498135617</v>
+        <v>0.2199829023908106</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5792629521831421</v>
+        <v>0.2632866885620203</v>
       </c>
       <c r="L8" t="n">
-        <v>1.275375777742177</v>
+        <v>0.5057732171743914</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4717475144020766</v>
+        <v>0.3931935722288625</v>
       </c>
       <c r="N8" t="n">
-        <v>1.016300569604945</v>
+        <v>1.011323908683195</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4918307827421522</v>
+        <v>0.4099326366215468</v>
       </c>
       <c r="P8" t="n">
-        <v>149.0052454545415</v>
+        <v>149.733812952701</v>
       </c>
       <c r="Q8" t="n">
-        <v>237.9831806699202</v>
+        <v>238.7117481680796</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9664991660153069</v>
+        <v>0.9768826379539172</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7612362946059179</v>
+        <v>0.7557451384009236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4990126639024562</v>
+        <v>0.9177435512823776</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6718616412369254</v>
+        <v>0.6667251132576055</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6262195662990093</v>
+        <v>0.8859084162234675</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2240202311127987</v>
+        <v>0.1545859064478208</v>
       </c>
       <c r="H9" t="n">
-        <v>1.596613997376</v>
+        <v>1.633333384203246</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6391793316454307</v>
+        <v>0.3559970577489626</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5729545653394469</v>
+        <v>0.2546433298071006</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6060669484924388</v>
+        <v>0.3053201937780316</v>
       </c>
       <c r="L9" t="n">
-        <v>1.248444909941404</v>
+        <v>0.5012081375059391</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4733077551792266</v>
+        <v>0.3931741426490567</v>
       </c>
       <c r="N9" t="n">
-        <v>1.016408571747605</v>
+        <v>1.011322789573592</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4934574461993292</v>
+        <v>0.409912379884304</v>
       </c>
       <c r="P9" t="n">
-        <v>148.9920378274753</v>
+        <v>149.7340106167652</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.9699730428539</v>
+        <v>238.7119458321438</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9661334280949539</v>
+        <v>0.9766093894947353</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7597576148156387</v>
+        <v>0.7521360551179999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4553401265574124</v>
+        <v>0.9069664445047273</v>
       </c>
       <c r="E10" t="n">
-        <v>0.674469498177088</v>
+        <v>0.6238399344274612</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6104418468142302</v>
+        <v>0.8710716660565225</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2264659222702681</v>
+        <v>0.156413120152563</v>
       </c>
       <c r="H10" t="n">
-        <v>1.606501935942291</v>
+        <v>1.657467340734458</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6948984710729993</v>
+        <v>0.4026392160684958</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5684010485081605</v>
+        <v>0.2874103493789111</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6316497597905799</v>
+        <v>0.3450247827237035</v>
       </c>
       <c r="L10" t="n">
-        <v>1.223436452776087</v>
+        <v>0.4968770376024543</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4758843580853105</v>
+        <v>0.3954909861837094</v>
       </c>
       <c r="N10" t="n">
-        <v>1.016587708688186</v>
+        <v>1.011456625553599</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4961437404254284</v>
+        <v>0.4123278562447541</v>
       </c>
       <c r="P10" t="n">
-        <v>148.9703215978624</v>
+        <v>149.7105091318917</v>
       </c>
       <c r="Q10" t="n">
-        <v>237.9482568132411</v>
+        <v>238.6884443472704</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9656710170639766</v>
+        <v>0.9761431946278715</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7583340813952572</v>
+        <v>0.7486702449017913</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4142650290791581</v>
+        <v>0.8968752663034767</v>
       </c>
       <c r="E11" t="n">
-        <v>0.676800034798843</v>
+        <v>0.5835893146691812</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5955367075386973</v>
+        <v>0.8571656984206928</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2295580669636201</v>
+        <v>0.1595305673739117</v>
       </c>
       <c r="H11" t="n">
-        <v>1.616021110479151</v>
+        <v>1.680643229608833</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7473036946419833</v>
+        <v>0.4463127493278528</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5643317540734634</v>
+        <v>0.3181643973128327</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6558177243577235</v>
+        <v>0.3822385069328321</v>
       </c>
       <c r="L11" t="n">
-        <v>1.200315834497259</v>
+        <v>0.4928172485398794</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4791221837523495</v>
+        <v>0.3994127781805581</v>
       </c>
       <c r="N11" t="n">
-        <v>1.016814195723767</v>
+        <v>1.011684965896553</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4995194070343363</v>
+        <v>0.4164166070461373</v>
       </c>
       <c r="P11" t="n">
-        <v>148.9431985327849</v>
+        <v>149.6710394602826</v>
       </c>
       <c r="Q11" t="n">
-        <v>237.9211337481635</v>
+        <v>238.6489746756612</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9651492072543089</v>
+        <v>0.9755469802697562</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7569779262541284</v>
+        <v>0.7453778900827721</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3759360652092</v>
+        <v>0.8874861564320028</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6788783803927035</v>
+        <v>0.5460316369070948</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5815760957572726</v>
+        <v>0.8442118244008892</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2330474115635818</v>
+        <v>0.1635174555319433</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6250897261524</v>
+        <v>1.702659221443514</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7962052930334678</v>
+        <v>0.4869478064113516</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5607028043802782</v>
+        <v>0.3468608653204931</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6784541831409674</v>
+        <v>0.4169043358659224</v>
       </c>
       <c r="L12" t="n">
-        <v>1.179007692095182</v>
+        <v>0.4890311530606027</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4827498436701785</v>
+        <v>0.4043729164174368</v>
       </c>
       <c r="N12" t="n">
-        <v>1.017069776038706</v>
+        <v>1.01197698925563</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5033015039451586</v>
+        <v>0.4215879086366615</v>
       </c>
       <c r="P12" t="n">
-        <v>148.9130267260216</v>
+        <v>149.6216710653604</v>
       </c>
       <c r="Q12" t="n">
-        <v>237.8909619414003</v>
+        <v>238.599606280739</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9645958079063196</v>
+        <v>0.974868162352643</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7556969748154596</v>
+        <v>0.7422767232682728</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3403965816537352</v>
+        <v>0.8787922828017695</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6807286901521032</v>
+        <v>0.5111438452350174</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5685904621030911</v>
+        <v>0.8322014517454314</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2367479955517557</v>
+        <v>0.1680567140693487</v>
       </c>
       <c r="H13" t="n">
-        <v>1.633655454321017</v>
+        <v>1.723396738211631</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8415479628162081</v>
+        <v>0.5245739558629178</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5574720226212165</v>
+        <v>0.3735173695888783</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6995097619071005</v>
+        <v>0.4490452632255884</v>
       </c>
       <c r="L13" t="n">
-        <v>1.159442628873351</v>
+        <v>0.4855313079104879</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4865675652483997</v>
+        <v>0.4099472088810323</v>
       </c>
       <c r="N13" t="n">
-        <v>1.017340828780578</v>
+        <v>1.012309471500746</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5072817538347377</v>
+        <v>0.4273995102708084</v>
       </c>
       <c r="P13" t="n">
-        <v>148.8815180269405</v>
+        <v>149.5669075456026</v>
       </c>
       <c r="Q13" t="n">
-        <v>237.8594532423191</v>
+        <v>238.5448427609813</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9640313968597667</v>
+        <v>0.9741426065941469</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7544955048421176</v>
+        <v>0.7393756018456998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3076118192888144</v>
+        <v>0.8707734300296854</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6823776935721519</v>
+        <v>0.4788668909717915</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5565799205279849</v>
+        <v>0.821109331607404</v>
       </c>
       <c r="G14" t="n">
-        <v>0.240522214818929</v>
+        <v>0.1729085087672891</v>
       </c>
       <c r="H14" t="n">
-        <v>1.641689689565015</v>
+        <v>1.742796550522812</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8833760510465347</v>
+        <v>0.5592786876850252</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5545927370621042</v>
+        <v>0.3981790270871594</v>
       </c>
       <c r="K14" t="n">
-        <v>0.718984275888721</v>
+        <v>0.4787288573860923</v>
       </c>
       <c r="L14" t="n">
-        <v>1.14151662058311</v>
+        <v>0.4823042451711455</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4904306422104241</v>
+        <v>0.4158226890963131</v>
       </c>
       <c r="N14" t="n">
-        <v>1.017617275007461</v>
+        <v>1.012664845749806</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5113092899807073</v>
+        <v>0.4335251218427745</v>
       </c>
       <c r="P14" t="n">
-        <v>148.8498856487853</v>
+        <v>149.5099853508631</v>
       </c>
       <c r="Q14" t="n">
-        <v>237.8278208641639</v>
+        <v>238.4879205662417</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9634708733192812</v>
+        <v>0.9733970803701203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7533751404470657</v>
+        <v>0.7366767269130829</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2774935782536112</v>
+        <v>0.8634006366750273</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6838488885220595</v>
+        <v>0.4491018824431352</v>
       </c>
       <c r="F15" t="n">
-        <v>0.545522545980247</v>
+        <v>0.8108984675154072</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2442704383151288</v>
+        <v>0.1778938460601872</v>
       </c>
       <c r="H15" t="n">
-        <v>1.649181571433531</v>
+        <v>1.760843939624398</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9218020865730475</v>
+        <v>0.5911873438763435</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5520239186337094</v>
+        <v>0.4209213973796211</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7369132754998844</v>
+        <v>0.5060541245093526</v>
       </c>
       <c r="L15" t="n">
-        <v>1.125127884478801</v>
+        <v>0.4793446285047355</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4942372287830296</v>
+        <v>0.4217746389485589</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01789181714974</v>
+        <v>1.01303000145137</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5152779308244291</v>
+        <v>0.4397304585224651</v>
       </c>
       <c r="P15" t="n">
-        <v>148.8189586274179</v>
+        <v>149.4531365540761</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.7968938427965</v>
+        <v>238.4310717694547</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.962924724450805</v>
+        <v>0.9726514321299029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7523354753350572</v>
+        <v>0.7341774827310391</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2499200244060512</v>
+        <v>0.8566400407865047</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6851616264596732</v>
+        <v>0.4217351763620937</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5353812551549789</v>
+        <v>0.8015248161982098</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2479225383134136</v>
+        <v>0.1828799992759152</v>
       </c>
       <c r="H16" t="n">
-        <v>1.65613381682475</v>
+        <v>1.777556396977686</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9569815101821528</v>
+        <v>0.6204464753178902</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5497317782168278</v>
+        <v>0.441831311206147</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7533568895312206</v>
+        <v>0.531138928680185</v>
       </c>
       <c r="L16" t="n">
-        <v>1.110170235741278</v>
+        <v>0.4766386536096471</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4979182044406628</v>
+        <v>0.4276447115023348</v>
       </c>
       <c r="N16" t="n">
-        <v>1.01815931863634</v>
+        <v>1.013395216915966</v>
       </c>
       <c r="O16" t="n">
-        <v>0.5191156132364777</v>
+        <v>0.4458504322175806</v>
       </c>
       <c r="P16" t="n">
-        <v>148.7892778542352</v>
+        <v>149.3978501657899</v>
       </c>
       <c r="Q16" t="n">
-        <v>237.7672130696138</v>
+        <v>238.3757853811686</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9624001027485919</v>
+        <v>0.9719200035815809</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7513746554440951</v>
+        <v>0.7318720133857677</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2247445932958662</v>
+        <v>0.8504552458232891</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6863348178109199</v>
+        <v>0.3966323033838106</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5261085434612938</v>
+        <v>0.7929400858549958</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2514306860517738</v>
+        <v>0.1877710653464632</v>
       </c>
       <c r="H17" t="n">
-        <v>1.662558823859782</v>
+        <v>1.792973081105226</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9891013145593248</v>
+        <v>0.6472136023214372</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5476832967675775</v>
+        <v>0.4610115117468965</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7683921443860469</v>
+        <v>0.5541125034624941</v>
       </c>
       <c r="L17" t="n">
-        <v>1.096543272623398</v>
+        <v>0.4741663806329265</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5014286450251658</v>
+        <v>0.4333255881510613</v>
       </c>
       <c r="N17" t="n">
-        <v>1.018416276204771</v>
+        <v>1.013753467633511</v>
       </c>
       <c r="O17" t="n">
-        <v>0.5227755005442769</v>
+        <v>0.4517731555462793</v>
       </c>
       <c r="P17" t="n">
-        <v>148.7611758592149</v>
+        <v>149.3450635914316</v>
       </c>
       <c r="Q17" t="n">
-        <v>237.7391110745935</v>
+        <v>238.3229988068102</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9619015488827549</v>
+        <v>0.9712128003701019</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7504896405401622</v>
+        <v>0.7297521102079153</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2018086722207071</v>
+        <v>0.844806475260224</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6873846903732863</v>
+        <v>0.3736575753717477</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5176499826626751</v>
+        <v>0.7850925502091615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.254764518048255</v>
+        <v>0.1925001364779945</v>
       </c>
       <c r="H18" t="n">
-        <v>1.6684769225975</v>
+        <v>1.807148883416782</v>
       </c>
       <c r="I18" t="n">
-        <v>1.018363864023526</v>
+        <v>0.6716608734071789</v>
       </c>
       <c r="J18" t="n">
-        <v>0.545850139315642</v>
+        <v>0.4785656734168282</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7821072928251905</v>
+        <v>0.5751132734120036</v>
       </c>
       <c r="L18" t="n">
-        <v>1.084148154882212</v>
+        <v>0.4719181816424213</v>
       </c>
       <c r="M18" t="n">
-        <v>0.5047420311884626</v>
+        <v>0.4387483749006878</v>
       </c>
       <c r="N18" t="n">
-        <v>1.018660465853344</v>
+        <v>1.01409985287995</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5262299444162002</v>
+        <v>0.4574268015545534</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7348312382172</v>
+        <v>149.2953168325559</v>
       </c>
       <c r="Q18" t="n">
-        <v>237.7127664535959</v>
+        <v>238.2732520479345</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9614319132389119</v>
+        <v>0.9705368931353308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7496769030688711</v>
+        <v>0.7278081032376835</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1809530971516971</v>
+        <v>0.8396573448412115</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6883247521838406</v>
+        <v>0.3526704640459478</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5099514763359908</v>
+        <v>0.777932673428824</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2579049737611063</v>
+        <v>0.1970199312691759</v>
       </c>
       <c r="H19" t="n">
-        <v>1.673911701810335</v>
+        <v>1.820148466978051</v>
       </c>
       <c r="I19" t="n">
-        <v>1.044972226297768</v>
+        <v>0.6939457557198946</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5442087197995309</v>
+        <v>0.4946011688100494</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7945900495900772</v>
+        <v>0.5942738012409555</v>
       </c>
       <c r="L19" t="n">
-        <v>1.072884211394955</v>
+        <v>0.4698740479181869</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5078434539906036</v>
+        <v>0.4438692727247246</v>
       </c>
       <c r="N19" t="n">
-        <v>1.018890491474819</v>
+        <v>1.014430909484736</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5294634012078586</v>
+        <v>0.4627657066006793</v>
       </c>
       <c r="P19" t="n">
-        <v>148.7103281613239</v>
+        <v>149.2489007628133</v>
       </c>
       <c r="Q19" t="n">
-        <v>237.6882633767025</v>
+        <v>238.226835978192</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9609925740929685</v>
+        <v>0.9698965300135798</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7489324385044988</v>
+        <v>0.7260295816642357</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1620201795858859</v>
+        <v>0.8349691379098921</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6891676204095419</v>
+        <v>0.3335280978429871</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5029563577036381</v>
+        <v>0.7714091124987154</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2608428366530007</v>
+        <v>0.2013020424129259</v>
       </c>
       <c r="H20" t="n">
-        <v>1.678889939780237</v>
+        <v>1.832041448929036</v>
       </c>
       <c r="I20" t="n">
-        <v>1.0691275865711</v>
+        <v>0.7142358107816861</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5427370076848134</v>
+        <v>0.509227160939113</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8059322971279568</v>
+        <v>0.6117314858603995</v>
       </c>
       <c r="L20" t="n">
-        <v>1.062659518583123</v>
+        <v>0.4680199785857735</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5107277519902367</v>
+        <v>0.4486669615794391</v>
       </c>
       <c r="N20" t="n">
-        <v>1.019105677995281</v>
+        <v>1.014744556728043</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5324704897446559</v>
+        <v>0.4677676430025241</v>
       </c>
       <c r="P20" t="n">
-        <v>148.6876744228945</v>
+        <v>149.205897600546</v>
       </c>
       <c r="Q20" t="n">
-        <v>237.6656096382731</v>
+        <v>238.1838328159246</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9605837157676478</v>
+        <v>0.9692944116860372</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7482518470429816</v>
+        <v>0.7244056592116423</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1448483484193289</v>
+        <v>0.8307066625848367</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6899243139047222</v>
+        <v>0.3160992038249389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4966078764885247</v>
+        <v>0.7654743449711994</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2635768741570398</v>
+        <v>0.2053284104417028</v>
       </c>
       <c r="H21" t="n">
-        <v>1.683441058017238</v>
+        <v>1.842900625847003</v>
       </c>
       <c r="I21" t="n">
-        <v>1.091036083607502</v>
+        <v>0.7326833452680878</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5414157632126325</v>
+        <v>0.5225439507248412</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8162260532764749</v>
+        <v>0.6276135019701753</v>
       </c>
       <c r="L21" t="n">
-        <v>1.05338725648501</v>
+        <v>0.4663341391747942</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5133973842522377</v>
+        <v>0.4531317804366659</v>
       </c>
       <c r="N21" t="n">
-        <v>1.019305935134213</v>
+        <v>1.015039471827247</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5352537737789511</v>
+        <v>0.4724225384419522</v>
       </c>
       <c r="P21" t="n">
-        <v>148.6668204220357</v>
+        <v>149.1662891590514</v>
       </c>
       <c r="Q21" t="n">
-        <v>237.6447556374143</v>
+        <v>238.1442243744301</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9602050824547813</v>
+        <v>0.9687315226998079</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7476308682768691</v>
+        <v>0.7229254314781508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1292952518556287</v>
+        <v>0.8268355736296803</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6906030465655382</v>
+        <v>0.3002447727165587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4908543208032893</v>
+        <v>0.7600807721510237</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2661087968636237</v>
+        <v>0.2090924516844838</v>
       </c>
       <c r="H22" t="n">
-        <v>1.687593545885577</v>
+        <v>1.852798915516682</v>
       </c>
       <c r="I22" t="n">
-        <v>1.110879335423087</v>
+        <v>0.7494370016659108</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5402306442947302</v>
+        <v>0.5346577501445851</v>
       </c>
       <c r="K22" t="n">
-        <v>0.825555166367294</v>
+        <v>0.6420472283161732</v>
       </c>
       <c r="L22" t="n">
-        <v>1.044979316794457</v>
+        <v>0.4648084368099836</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5158573415815886</v>
+        <v>0.4572662809397647</v>
       </c>
       <c r="N22" t="n">
-        <v>1.019491388185413</v>
+        <v>1.015315172555196</v>
       </c>
       <c r="O22" t="n">
-        <v>0.537818456584626</v>
+        <v>0.4767330531910638</v>
       </c>
       <c r="P22" t="n">
-        <v>148.6477000861141</v>
+        <v>149.1299575445381</v>
       </c>
       <c r="Q22" t="n">
-        <v>237.6256353014927</v>
+        <v>238.1078927599167</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.959855806445464</v>
+        <v>0.9682079176523744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7470651400084649</v>
+        <v>0.7215782733497075</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1152202972443078</v>
+        <v>0.8233227254753663</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6912124875539174</v>
+        <v>0.2858415626005834</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4856451830203363</v>
+        <v>0.7551839964505859</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2684444071461972</v>
+        <v>0.2125938010476517</v>
       </c>
       <c r="H23" t="n">
-        <v>1.691376573421335</v>
+        <v>1.861807368124676</v>
       </c>
       <c r="I23" t="n">
-        <v>1.128836715646471</v>
+        <v>0.7646402304309613</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5391665139141398</v>
+        <v>0.545662723905714</v>
       </c>
       <c r="K23" t="n">
-        <v>0.834001532082939</v>
+        <v>0.6551514771683375</v>
       </c>
       <c r="L23" t="n">
-        <v>1.037371131400726</v>
+        <v>0.4634277432284773</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5181162100785858</v>
+        <v>0.461078953160575</v>
       </c>
       <c r="N23" t="n">
-        <v>1.019662462149161</v>
+        <v>1.015571632170266</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5401734897900429</v>
+        <v>0.4807080387616335</v>
       </c>
       <c r="P23" t="n">
-        <v>148.6302228724116</v>
+        <v>149.096743942637</v>
       </c>
       <c r="Q23" t="n">
-        <v>237.6081580877903</v>
+        <v>238.0746791580157</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9595346429524417</v>
+        <v>0.9677229147073199</v>
       </c>
       <c r="C24" t="n">
-        <v>0.746550584040818</v>
+        <v>0.720353681229021</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1024931999616102</v>
+        <v>0.8201378563076618</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6917607439622672</v>
+        <v>0.2727693878405922</v>
       </c>
       <c r="F24" t="n">
-        <v>0.48093300814896</v>
+        <v>0.7507425010879303</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2705920289028587</v>
+        <v>0.2158370179744642</v>
       </c>
       <c r="H24" t="n">
-        <v>1.694817411546303</v>
+        <v>1.869996221274434</v>
       </c>
       <c r="I24" t="n">
-        <v>1.145074446520685</v>
+        <v>0.7784240014385141</v>
       </c>
       <c r="J24" t="n">
-        <v>0.538209216470084</v>
+        <v>0.5556507015215535</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8416420964024249</v>
+        <v>0.6670373514800337</v>
       </c>
       <c r="L24" t="n">
-        <v>1.030483559657019</v>
+        <v>0.4621817769226116</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5201846104056316</v>
+        <v>0.4645826277148815</v>
       </c>
       <c r="N24" t="n">
-        <v>1.019819766717171</v>
+        <v>1.015809184633149</v>
       </c>
       <c r="O24" t="n">
-        <v>0.54232994620119</v>
+        <v>0.4843608719953231</v>
       </c>
       <c r="P24" t="n">
-        <v>148.6142860416021</v>
+        <v>149.0664634050518</v>
       </c>
       <c r="Q24" t="n">
-        <v>237.5922212569807</v>
+        <v>238.0443986204305</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9592400449543834</v>
+        <v>0.9672753579139171</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7460830017152456</v>
+        <v>0.7192418570844614</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09099025619504375</v>
+        <v>0.8172532619392153</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6922523953839892</v>
+        <v>0.2609164064366544</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4766723458016116</v>
+        <v>0.7467179190751501</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2725620070723733</v>
+        <v>0.218829832312758</v>
       </c>
       <c r="H25" t="n">
-        <v>1.697944136710424</v>
+        <v>1.877430994448583</v>
       </c>
       <c r="I25" t="n">
-        <v>1.159750354231129</v>
+        <v>0.7909082154299474</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5373507556437023</v>
+        <v>0.56470713743349</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8485505549374157</v>
+        <v>0.6778075250488788</v>
       </c>
       <c r="L25" t="n">
-        <v>1.024256819858774</v>
+        <v>0.4610538231744583</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5220747140710545</v>
+        <v>0.4677925098938183</v>
       </c>
       <c r="N25" t="n">
-        <v>1.019964059614179</v>
+        <v>1.016028396123796</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5443005154927039</v>
+        <v>0.4877074055039893</v>
       </c>
       <c r="P25" t="n">
-        <v>148.5997782837494</v>
+        <v>149.0389217452123</v>
       </c>
       <c r="Q25" t="n">
-        <v>237.5777134991281</v>
+        <v>238.016856960591</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9589705713480816</v>
+        <v>0.9668635259419169</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7456586994100154</v>
+        <v>0.718233346681849</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08059978863795247</v>
+        <v>0.8146416142808817</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6926965037975688</v>
+        <v>0.250178061616801</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4728235974435642</v>
+        <v>0.7430731133880768</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2743639783185255</v>
+        <v>0.2215837546058347</v>
       </c>
       <c r="H26" t="n">
-        <v>1.70078144817923</v>
+        <v>1.884174908154616</v>
       </c>
       <c r="I26" t="n">
-        <v>1.173006921074432</v>
+        <v>0.8022111454340795</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5365753085304015</v>
+        <v>0.572911919702782</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8547911148024165</v>
+        <v>0.6875613801696923</v>
       </c>
       <c r="L26" t="n">
-        <v>1.018629293847874</v>
+        <v>0.4600345860527745</v>
       </c>
       <c r="M26" t="n">
-        <v>0.523797650165143</v>
+        <v>0.4707268365048191</v>
       </c>
       <c r="N26" t="n">
-        <v>1.020096046686654</v>
+        <v>1.016230109742735</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5460968005432871</v>
+        <v>0.4907666524737139</v>
       </c>
       <c r="P26" t="n">
-        <v>148.5865993321941</v>
+        <v>149.0139092726735</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.5645345475727</v>
+        <v>237.9918444880521</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_16_5.xlsx
@@ -518,166 +518,166 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_0</t>
+          <t>model_16_5_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9614161200387106</v>
+        <v>0.9461925102890616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7770505887847964</v>
+        <v>0.8071733352257915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9966247025883528</v>
+        <v>0.9868860827805714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9851326791367697</v>
+        <v>0.7548362075543791</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9951482422916204</v>
+        <v>0.9673591027826542</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2580105829635732</v>
+        <v>0.3598109314577533</v>
       </c>
       <c r="H2" t="n">
-        <v>1.490863739383711</v>
+        <v>1.289432795230282</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01460792395376856</v>
+        <v>0.1712120717448514</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01135958405665837</v>
+        <v>0.297714622812751</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01298377631945209</v>
+        <v>0.2344633472788012</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5328433010551393</v>
+        <v>1.681470419129034</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5079474214557774</v>
+        <v>0.5998424221891557</v>
       </c>
       <c r="N2" t="n">
-        <v>1.018898226919815</v>
+        <v>1.026354688838011</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5295717947832672</v>
+        <v>0.6253789559467413</v>
       </c>
       <c r="P2" t="n">
-        <v>148.7095093513263</v>
+        <v>148.0443531517758</v>
       </c>
       <c r="Q2" t="n">
-        <v>237.6874445667049</v>
+        <v>237.0222883671544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_1</t>
+          <t>model_16_5_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9673129173037339</v>
+        <v>0.9524295372995027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7757579266188058</v>
+        <v>0.8069595587342444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9885149438569208</v>
+        <v>0.9835746977371884</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9510029718952659</v>
+        <v>0.727411340736159</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9837182696855493</v>
+        <v>0.9620316123448616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2185786725001079</v>
+        <v>0.3181039031200648</v>
       </c>
       <c r="H3" t="n">
-        <v>1.499507777239851</v>
+        <v>1.290862319613608</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04970608698478721</v>
+        <v>0.2144446988947752</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03743686333283651</v>
+        <v>0.3310180066404724</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04357149660036742</v>
+        <v>0.272731328465816</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5291195737248854</v>
+        <v>1.568094669624934</v>
       </c>
       <c r="M3" t="n">
-        <v>0.467523980668487</v>
+        <v>0.5640070062685967</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016009999687967</v>
+        <v>1.02329981846555</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4874274444336036</v>
+        <v>0.5880179521809066</v>
       </c>
       <c r="P3" t="n">
-        <v>149.0412185440856</v>
+        <v>148.2907544203968</v>
       </c>
       <c r="Q3" t="n">
-        <v>238.0191537594642</v>
+        <v>237.2686896357754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_16_5_2</t>
+          <t>model_16_5_0</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9713076162222154</v>
+        <v>0.9377638260717662</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7733764926566357</v>
+        <v>0.8054943331632799</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9777980064841248</v>
+        <v>0.9893497706396023</v>
       </c>
       <c r="E4" t="n">
-        <v>0.906897680143026</v>
+        <v>0.7808210542074991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9687559420614447</v>
+        <v>0.9717945036679529</v>
       </c>
       <c r="G4" t="n">
-        <v>0.191866102438325</v>
+        <v>0.4161735816293299</v>
       </c>
       <c r="H4" t="n">
-        <v>1.515432437110378</v>
+        <v>1.300660289753391</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09608783859544152</v>
+        <v>0.1390467701481337</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07113612721582188</v>
+        <v>0.2661599273048622</v>
       </c>
       <c r="K4" t="n">
-        <v>0.08361214305602384</v>
+        <v>0.2026033487264979</v>
       </c>
       <c r="L4" t="n">
-        <v>0.524774835666888</v>
+        <v>1.805673532933318</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4380252303672986</v>
+        <v>0.645115169275479</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014053412462588</v>
+        <v>1.030483023964849</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4566728712612623</v>
+        <v>0.6725790576040355</v>
       </c>
       <c r="P4" t="n">
-        <v>149.3019150667456</v>
+        <v>147.7533056844381</v>
       </c>
       <c r="Q4" t="n">
-        <v>238.2798502821243</v>
+        <v>236.7312408998167</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9739375195622426</v>
+        <v>0.9569590650302605</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7703150322852654</v>
+        <v>0.8053868705416665</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9658314431751476</v>
+        <v>0.9797144062147528</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8584114162556495</v>
+        <v>0.6996397726779032</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9521578127098242</v>
+        <v>0.9561759735609047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1742799266939717</v>
+        <v>0.2878149303279307</v>
       </c>
       <c r="H5" t="n">
-        <v>1.53590443671046</v>
+        <v>1.30137889279894</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1478778367752431</v>
+        <v>0.2648437137761632</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1081827340180042</v>
+        <v>0.3647424070786658</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1280303543056425</v>
+        <v>0.3147930604274145</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5201847087178531</v>
+        <v>1.464009308621503</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4174684738923068</v>
+        <v>0.5364838584038952</v>
       </c>
       <c r="N5" t="n">
-        <v>1.012765296540942</v>
+        <v>1.021081274270893</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4352409711047779</v>
+        <v>0.5593230869308343</v>
       </c>
       <c r="P5" t="n">
-        <v>149.4941849967103</v>
+        <v>148.4908752168641</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.4721202120889</v>
+        <v>237.4688104322427</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9755773581448534</v>
+        <v>0.9601718125247086</v>
       </c>
       <c r="C6" t="n">
-        <v>0.766853537739135</v>
+        <v>0.8028816687187761</v>
       </c>
       <c r="D6" t="n">
-        <v>0.953439094685931</v>
+        <v>0.9755518811707504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8087227857146737</v>
+        <v>0.6723728997568683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9350436702946648</v>
+        <v>0.9500883350882667</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1633143185412911</v>
+        <v>0.2663312730392139</v>
       </c>
       <c r="H6" t="n">
-        <v>1.559051466679151</v>
+        <v>1.318131188924001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2015105873928338</v>
+        <v>0.3191886150401145</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1461480258471751</v>
+        <v>0.397853931035735</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1738294667868569</v>
+        <v>0.3585212730379247</v>
       </c>
       <c r="L6" t="n">
-        <v>0.515366746402192</v>
+        <v>1.368286677484392</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4041216630438055</v>
+        <v>0.5160729338370826</v>
       </c>
       <c r="N6" t="n">
-        <v>1.011962110296398</v>
+        <v>1.019507683661367</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4213259588867486</v>
+        <v>0.5380432270487741</v>
       </c>
       <c r="P6" t="n">
-        <v>149.6241572008334</v>
+        <v>148.6460287153731</v>
       </c>
       <c r="Q6" t="n">
-        <v>238.6020924162121</v>
+        <v>237.6239639307518</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9764934608839864</v>
+        <v>0.9623805548616692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7631865627176898</v>
+        <v>0.799780884445311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9411161183823787</v>
+        <v>0.9712782397540372</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7596125927325535</v>
+        <v>0.6462860409269667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9180682270769057</v>
+        <v>0.9439994605220292</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1571883353064433</v>
+        <v>0.2515614028616351</v>
       </c>
       <c r="H7" t="n">
-        <v>1.583572545532422</v>
+        <v>1.338866147638461</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2548431026565877</v>
+        <v>0.3749842242853867</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1836713543843853</v>
+        <v>0.4295325050186216</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2192574067027917</v>
+        <v>0.4022583646520041</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5105219133986088</v>
+        <v>1.280298947528336</v>
       </c>
       <c r="M7" t="n">
-        <v>0.396469841610233</v>
+        <v>0.5015589724664838</v>
       </c>
       <c r="N7" t="n">
-        <v>1.011513406913966</v>
+        <v>1.018425850679999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4133483835732949</v>
+        <v>0.5229113762945868</v>
       </c>
       <c r="P7" t="n">
-        <v>149.7006212092508</v>
+        <v>148.7601363453483</v>
       </c>
       <c r="Q7" t="n">
-        <v>238.6785564246295</v>
+        <v>237.7380715607269</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9768803531051431</v>
+        <v>0.9638328148491124</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7594513298634167</v>
+        <v>0.7963450759144872</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9291594042330847</v>
+        <v>0.9670323700617891</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7120883671482832</v>
+        <v>0.6218920770790817</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9016154322659777</v>
+        <v>0.9380789431271848</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1546011852420937</v>
+        <v>0.2418501336385603</v>
       </c>
       <c r="H8" t="n">
-        <v>1.608550064828112</v>
+        <v>1.361841415104523</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3065904747332301</v>
+        <v>0.4304172527394236</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2199829023908106</v>
+        <v>0.4591553121771943</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2632866885620203</v>
+        <v>0.4447861271940193</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5057732171743914</v>
+        <v>1.199561923760995</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3931935722288625</v>
+        <v>0.4917826081090712</v>
       </c>
       <c r="N8" t="n">
-        <v>1.011323908683195</v>
+        <v>1.017714539665741</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4099326366215468</v>
+        <v>0.5127188118666149</v>
       </c>
       <c r="P8" t="n">
-        <v>149.733812952701</v>
+        <v>148.8388740542907</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.7117481680796</v>
+        <v>237.8168092696693</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9768826379539172</v>
+        <v>0.9647210477536811</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7557451384009236</v>
+        <v>0.7927692693260437</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9177435512823776</v>
+        <v>0.9629069091752603</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6667251132576055</v>
+        <v>0.5995378823004764</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8859084162234675</v>
+        <v>0.9324402254441048</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1545859064478208</v>
+        <v>0.2359105161157729</v>
       </c>
       <c r="H9" t="n">
-        <v>1.633333384203246</v>
+        <v>1.385752850226521</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3559970577489626</v>
+        <v>0.48427825349658</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2546433298071006</v>
+        <v>0.4863011260039705</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3053201937780316</v>
+        <v>0.4852896897502752</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5012081375059391</v>
+        <v>1.125665710544577</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3931741426490567</v>
+        <v>0.4857062034973126</v>
       </c>
       <c r="N9" t="n">
-        <v>1.011322789573592</v>
+        <v>1.017279486814524</v>
       </c>
       <c r="O9" t="n">
-        <v>0.409912379884304</v>
+        <v>0.5063837221306423</v>
       </c>
       <c r="P9" t="n">
-        <v>149.7340106167652</v>
+        <v>148.8886054297205</v>
       </c>
       <c r="Q9" t="n">
-        <v>238.7119458321438</v>
+        <v>237.8665406450991</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9766093894947353</v>
+        <v>0.9651933286811419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7521360551179999</v>
+        <v>0.7891929519328548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9069664445047273</v>
+        <v>0.9589585337099934</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6238399344274612</v>
+        <v>0.5794157292652506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8710716660565225</v>
+        <v>0.9271511313689488</v>
       </c>
       <c r="G10" t="n">
-        <v>0.156413120152563</v>
+        <v>0.2327523713791885</v>
       </c>
       <c r="H10" t="n">
-        <v>1.657467340734458</v>
+        <v>1.409667701102202</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4026392160684958</v>
+        <v>0.5358272706303302</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2874103493789111</v>
+        <v>0.510736460199543</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3450247827237035</v>
+        <v>0.5232818654149367</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4968770376024543</v>
+        <v>1.059544183445014</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3954909861837094</v>
+        <v>0.4824441640015852</v>
       </c>
       <c r="N10" t="n">
-        <v>1.011456625553599</v>
+        <v>1.017048165543931</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4123278562447541</v>
+        <v>0.5029828108602291</v>
       </c>
       <c r="P10" t="n">
-        <v>149.7105091318917</v>
+        <v>148.9155603487038</v>
       </c>
       <c r="Q10" t="n">
-        <v>238.6884443472704</v>
+        <v>237.8934955640824</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9761431946278715</v>
+        <v>0.9653613195860609</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7486702449017913</v>
+        <v>0.7857104735403668</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8968752663034767</v>
+        <v>0.9552172184925696</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5835893146691812</v>
+        <v>0.5615554449836533</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8571656984206928</v>
+        <v>0.9222414567339163</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1595305673739117</v>
+        <v>0.2316290154244688</v>
       </c>
       <c r="H11" t="n">
-        <v>1.680643229608833</v>
+        <v>1.432955050148108</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4463127493278528</v>
+        <v>0.5846729601910869</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3181643973128327</v>
+        <v>0.5324250943374884</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3822385069328321</v>
+        <v>0.5585486272724445</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4928172485398794</v>
+        <v>0.9993605672568034</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3994127781805581</v>
+        <v>0.4812785216737485</v>
       </c>
       <c r="N11" t="n">
-        <v>1.011684965896553</v>
+        <v>1.016965884284378</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4164166070461373</v>
+        <v>0.5017675447252842</v>
       </c>
       <c r="P11" t="n">
-        <v>149.6710394602826</v>
+        <v>148.9252365172829</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.6489746756612</v>
+        <v>237.9031717326615</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9755469802697562</v>
+        <v>0.9653092833564245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7453778900827721</v>
+        <v>0.7823816330803267</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8874861564320028</v>
+        <v>0.9516959036157396</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5460316369070948</v>
+        <v>0.5458866963119364</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8442118244008892</v>
+        <v>0.917716849064931</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1635174555319433</v>
+        <v>0.2319769819316519</v>
       </c>
       <c r="H12" t="n">
-        <v>1.702659221443514</v>
+        <v>1.455215021632297</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4869478064113516</v>
+        <v>0.6306463795165349</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3468608653204931</v>
+        <v>0.5514524374627285</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4169043358659224</v>
+        <v>0.5910494084896317</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4890311530606027</v>
+        <v>0.9446323809810663</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4043729164174368</v>
+        <v>0.4816398882273477</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01197698925563</v>
+        <v>1.016991371417261</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4215879086366615</v>
+        <v>0.5021442954012019</v>
       </c>
       <c r="P12" t="n">
-        <v>149.6216710653604</v>
+        <v>148.9222342560998</v>
       </c>
       <c r="Q12" t="n">
-        <v>238.599606280739</v>
+        <v>237.9001694714784</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.974868162352643</v>
+        <v>0.9651001450196321</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7422767232682728</v>
+        <v>0.7792406731848378</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8787922828017695</v>
+        <v>0.9483970506387577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5111438452350174</v>
+        <v>0.5322500431512223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8322014517454314</v>
+        <v>0.9135662251128045</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1680567140693487</v>
+        <v>0.2333754909527755</v>
       </c>
       <c r="H13" t="n">
-        <v>1.723396738211631</v>
+        <v>1.476218634916222</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5245739558629178</v>
+        <v>0.6737153910956222</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3735173695888783</v>
+        <v>0.5680121056407725</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4490452632255884</v>
+        <v>0.6208638213297906</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4855313079104879</v>
+        <v>0.8949683100749714</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4099472088810323</v>
+        <v>0.4830895268506403</v>
       </c>
       <c r="N13" t="n">
-        <v>1.012309471500746</v>
+        <v>1.017093806520996</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4273995102708084</v>
+        <v>0.5036556481418538</v>
       </c>
       <c r="P13" t="n">
-        <v>149.5669075456026</v>
+        <v>148.9102131468296</v>
       </c>
       <c r="Q13" t="n">
-        <v>238.5448427609813</v>
+        <v>237.8881483622082</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9741426065941469</v>
+        <v>0.9647815073126792</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7393756018456998</v>
+        <v>0.7763043823615146</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8707734300296854</v>
+        <v>0.9453173057359994</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4788668909717915</v>
+        <v>0.5204518108423174</v>
       </c>
       <c r="F14" t="n">
-        <v>0.821109331607404</v>
+        <v>0.9097701513628517</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1729085087672891</v>
+        <v>0.2355062227663616</v>
       </c>
       <c r="H14" t="n">
-        <v>1.742796550522812</v>
+        <v>1.495853625172161</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5592786876850252</v>
+        <v>0.7139237816492632</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3981790270871594</v>
+        <v>0.5823392876714629</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4787288573860923</v>
+        <v>0.6481314589809437</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4823042451711455</v>
+        <v>0.8499824660674917</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4158226890963131</v>
+        <v>0.4852898337760246</v>
       </c>
       <c r="N14" t="n">
-        <v>1.012664845749806</v>
+        <v>1.0172498739693</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4335251218427745</v>
+        <v>0.5059496266883149</v>
       </c>
       <c r="P14" t="n">
-        <v>149.5099853508631</v>
+        <v>148.8920358844768</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.4879205662417</v>
+        <v>237.8699710998555</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9733970803701203</v>
+        <v>0.9643890236301127</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7366767269130829</v>
+        <v>0.7735776897995764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8634006366750273</v>
+        <v>0.9424503227156797</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4491018824431352</v>
+        <v>0.5102764084486169</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8108984675154072</v>
+        <v>0.9063045912452926</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1778938460601872</v>
+        <v>0.2381307629589055</v>
       </c>
       <c r="H15" t="n">
-        <v>1.760843939624398</v>
+        <v>1.514087030889106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5911873438763435</v>
+        <v>0.7513544054936014</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4209213973796211</v>
+        <v>0.5946957863835656</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5060541245093526</v>
+        <v>0.6730249789092811</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4793446285047355</v>
+        <v>0.8092943858371495</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4217746389485589</v>
+        <v>0.487986437269424</v>
       </c>
       <c r="N15" t="n">
-        <v>1.01303000145137</v>
+        <v>1.017442110875047</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4397304585224651</v>
+        <v>0.5087610301751671</v>
       </c>
       <c r="P15" t="n">
-        <v>149.4531365540761</v>
+        <v>148.8698706639836</v>
       </c>
       <c r="Q15" t="n">
-        <v>238.4310717694547</v>
+        <v>237.8478058793622</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9726514321299029</v>
+        <v>0.9639496885883015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7341774827310391</v>
+        <v>0.7710582005010058</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8566400407865047</v>
+        <v>0.9397879244851656</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4217351763620937</v>
+        <v>0.5015154128514403</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8015248161982098</v>
+        <v>0.9031444883781989</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1828799992759152</v>
+        <v>0.2410685984064481</v>
       </c>
       <c r="H16" t="n">
-        <v>1.777556396977686</v>
+        <v>1.530934867429829</v>
       </c>
       <c r="I16" t="n">
-        <v>0.6204464753178902</v>
+        <v>0.7861140207350967</v>
       </c>
       <c r="J16" t="n">
-        <v>0.441831311206147</v>
+        <v>0.6053347003669839</v>
       </c>
       <c r="K16" t="n">
-        <v>0.531138928680185</v>
+        <v>0.6957243640098351</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4766386536096471</v>
+        <v>0.772537232298717</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4276447115023348</v>
+        <v>0.490987370923579</v>
       </c>
       <c r="N16" t="n">
-        <v>1.013395216915966</v>
+        <v>1.017657295385322</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4458504322175806</v>
+        <v>0.5118897197877684</v>
       </c>
       <c r="P16" t="n">
-        <v>149.3978501657899</v>
+        <v>148.8453474906066</v>
       </c>
       <c r="Q16" t="n">
-        <v>238.3757853811686</v>
+        <v>237.8232827059852</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9719200035815809</v>
+        <v>0.9634841398355023</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7318720133857677</v>
+        <v>0.7687388855503303</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8504552458232891</v>
+        <v>0.9373215471564063</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3966323033838106</v>
+        <v>0.4939750269664798</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7929400858549958</v>
+        <v>0.9002657185573451</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1877710653464632</v>
+        <v>0.2441817250600716</v>
       </c>
       <c r="H17" t="n">
-        <v>1.792973081105226</v>
+        <v>1.546444137184459</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6472136023214372</v>
+        <v>0.8183144353858621</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4610115117468965</v>
+        <v>0.6144913670884842</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5541125034624941</v>
+        <v>0.7164029012371731</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4741663806329265</v>
+        <v>0.7393549148969416</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4333255881510613</v>
+        <v>0.4941474729876412</v>
       </c>
       <c r="N17" t="n">
-        <v>1.013753467633511</v>
+        <v>1.017885319264244</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4517731555462793</v>
+        <v>0.515184353939011</v>
       </c>
       <c r="P17" t="n">
-        <v>149.3450635914316</v>
+        <v>148.8196851121195</v>
       </c>
       <c r="Q17" t="n">
-        <v>238.3229988068102</v>
+        <v>237.7976203274981</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9712128003701019</v>
+        <v>0.963007654404162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7297521102079153</v>
+        <v>0.7666101539038496</v>
       </c>
       <c r="D18" t="n">
-        <v>0.844806475260224</v>
+        <v>0.9350416558467881</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3736575753717477</v>
+        <v>0.4874817745820046</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7850925502091615</v>
+        <v>0.8976449237266215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1925001364779945</v>
+        <v>0.2473679853334578</v>
       </c>
       <c r="H18" t="n">
-        <v>1.807148883416782</v>
+        <v>1.560678975506384</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6716608734071789</v>
+        <v>0.8480801345237603</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4785656734168282</v>
+        <v>0.6223764473655843</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5751132734120036</v>
+        <v>0.7352283742151606</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4719181816424213</v>
+        <v>0.7094221150509403</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4387483749006878</v>
+        <v>0.4973610211239496</v>
       </c>
       <c r="N18" t="n">
-        <v>1.01409985287995</v>
+        <v>1.018118699883676</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4574268015545534</v>
+        <v>0.5185347094724436</v>
       </c>
       <c r="P18" t="n">
-        <v>149.2953168325559</v>
+        <v>148.7937564637398</v>
       </c>
       <c r="Q18" t="n">
-        <v>238.2732520479345</v>
+        <v>237.7716916791185</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9705368931353308</v>
+        <v>0.9625318445083882</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7278081032376835</v>
+        <v>0.764660923909094</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8396573448412115</v>
+        <v>0.9329391161528869</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3526704640459478</v>
+        <v>0.4818812548403433</v>
       </c>
       <c r="F19" t="n">
-        <v>0.777932673428824</v>
+        <v>0.8952607867690421</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1970199312691759</v>
+        <v>0.2505497282974004</v>
       </c>
       <c r="H19" t="n">
-        <v>1.820148466978051</v>
+        <v>1.573713485456693</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6939457557198946</v>
+        <v>0.8755303746690373</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4946011688100494</v>
+        <v>0.6291774378618212</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5942738012409555</v>
+        <v>0.7523539062654293</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4698740479181869</v>
+        <v>0.6824379418477088</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4438692727247246</v>
+        <v>0.5005494264280006</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014430909484736</v>
+        <v>1.018351749628545</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4627657066006793</v>
+        <v>0.521858851791197</v>
       </c>
       <c r="P19" t="n">
-        <v>149.2489007628133</v>
+        <v>148.7681957240033</v>
       </c>
       <c r="Q19" t="n">
-        <v>238.226835978192</v>
+        <v>237.7461309393819</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9698965300135798</v>
+        <v>0.9620649982581043</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7260295816642357</v>
+        <v>0.7628795249866156</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8349691379098921</v>
+        <v>0.9310037560801726</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3335280978429871</v>
+        <v>0.477039774964452</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7714091124987154</v>
+        <v>0.8930927280023362</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2013020424129259</v>
+        <v>0.2536715313226784</v>
       </c>
       <c r="H20" t="n">
-        <v>1.832041448929036</v>
+        <v>1.585625708253894</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7142358107816861</v>
+        <v>0.9007979588757442</v>
       </c>
       <c r="J20" t="n">
-        <v>0.509227160939113</v>
+        <v>0.6350566883854326</v>
       </c>
       <c r="K20" t="n">
-        <v>0.6117314858603995</v>
+        <v>0.7679273236305886</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4680199785857735</v>
+        <v>0.658117138812628</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4486669615794391</v>
+        <v>0.5036581492666216</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014744556728043</v>
+        <v>1.018580409016439</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4677676430025241</v>
+        <v>0.5250999193970014</v>
       </c>
       <c r="P20" t="n">
-        <v>149.205897600546</v>
+        <v>148.7434300652326</v>
       </c>
       <c r="Q20" t="n">
-        <v>238.1838328159246</v>
+        <v>237.7213652806112</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9692944116860372</v>
+        <v>0.9616133369881391</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7244056592116423</v>
+        <v>0.7612542839023865</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8307066625848367</v>
+        <v>0.9292259967738973</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3160992038249389</v>
+        <v>0.4728485632503082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7654743449711994</v>
+        <v>0.8911228415795318</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2053284104417028</v>
+        <v>0.2566917923146446</v>
       </c>
       <c r="H21" t="n">
-        <v>1.842900625847003</v>
+        <v>1.596493702867682</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7326833452680878</v>
+        <v>0.9240079463110884</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5225439507248412</v>
+        <v>0.6401462858425346</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6276135019701753</v>
+        <v>0.782077246084447</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4663341391747942</v>
+        <v>0.6362103121026642</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4531317804366659</v>
+        <v>0.5066476017062003</v>
       </c>
       <c r="N21" t="n">
-        <v>1.015039471827247</v>
+        <v>1.018801630862952</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4724225384419522</v>
+        <v>0.5282166390159527</v>
       </c>
       <c r="P21" t="n">
-        <v>149.1662891590514</v>
+        <v>148.7197583309173</v>
       </c>
       <c r="Q21" t="n">
-        <v>238.1442243744301</v>
+        <v>237.697693546296</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9687315226998079</v>
+        <v>0.9611811073701306</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7229254314781508</v>
+        <v>0.7597735595016504</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8268355736296803</v>
+        <v>0.9275961306414996</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3002447727165587</v>
+        <v>0.4692095196546788</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7600807721510237</v>
+        <v>0.8893340553330653</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2090924516844838</v>
+        <v>0.2595821137605013</v>
       </c>
       <c r="H22" t="n">
-        <v>1.852798915516682</v>
+        <v>1.606395313753513</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7494370016659108</v>
+        <v>0.945287076911452</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5346577501445851</v>
+        <v>0.6445653580092057</v>
       </c>
       <c r="K22" t="n">
-        <v>0.6420472283161732</v>
+        <v>0.794926304985007</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4648084368099836</v>
+        <v>0.616468111192488</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4572662809397647</v>
+        <v>0.5094920154040702</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015315172555196</v>
+        <v>1.01901333516565</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4767330531910638</v>
+        <v>0.531182145293689</v>
       </c>
       <c r="P22" t="n">
-        <v>149.1299575445381</v>
+        <v>148.697364391507</v>
       </c>
       <c r="Q22" t="n">
-        <v>238.1078927599167</v>
+        <v>237.6752996068857</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9682079176523744</v>
+        <v>0.9607709462875282</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7215782733497075</v>
+        <v>0.75842618549841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8233227254753663</v>
+        <v>0.92610409576148</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2858415626005834</v>
+        <v>0.466043212375313</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7551839964505859</v>
+        <v>0.8877103724716291</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2125938010476517</v>
+        <v>0.2623248628084819</v>
       </c>
       <c r="H23" t="n">
-        <v>1.861807368124676</v>
+        <v>1.615405209917268</v>
       </c>
       <c r="I23" t="n">
-        <v>0.7646402304309613</v>
+        <v>0.9647667166445191</v>
       </c>
       <c r="J23" t="n">
-        <v>0.545662723905714</v>
+        <v>0.6484103628852611</v>
       </c>
       <c r="K23" t="n">
-        <v>0.6551514771683375</v>
+        <v>0.8065894071380098</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4634277432284773</v>
+        <v>0.5986981449933348</v>
       </c>
       <c r="M23" t="n">
-        <v>0.461078953160575</v>
+        <v>0.5121765933820892</v>
       </c>
       <c r="N23" t="n">
-        <v>1.015571632170266</v>
+        <v>1.019214230389782</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4807080387616335</v>
+        <v>0.5339810113140748</v>
       </c>
       <c r="P23" t="n">
-        <v>149.096743942637</v>
+        <v>148.6763432178426</v>
       </c>
       <c r="Q23" t="n">
-        <v>238.0746791580157</v>
+        <v>237.6542784332213</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9677229147073199</v>
+        <v>0.9603846031695091</v>
       </c>
       <c r="C24" t="n">
-        <v>0.720353681229021</v>
+        <v>0.757201538750115</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8201378563076618</v>
+        <v>0.9247408062072695</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2727693878405922</v>
+        <v>0.463280653290718</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7507425010879303</v>
+        <v>0.8862380668166675</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2158370179744642</v>
+        <v>0.264908341017622</v>
       </c>
       <c r="H24" t="n">
-        <v>1.869996221274434</v>
+        <v>1.623594428362097</v>
       </c>
       <c r="I24" t="n">
-        <v>0.7784240014385141</v>
+        <v>0.9825654891286619</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5556507015215535</v>
+        <v>0.6517650761880037</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6670373514800337</v>
+        <v>0.8171651492746672</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4621817769226116</v>
+        <v>0.58268946176217</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4645826277148815</v>
+        <v>0.5146924722760398</v>
       </c>
       <c r="N24" t="n">
-        <v>1.015809184633149</v>
+        <v>1.019403459672077</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4843608719953231</v>
+        <v>0.5366039963811281</v>
       </c>
       <c r="P24" t="n">
-        <v>149.0664634050518</v>
+        <v>148.6567427915592</v>
       </c>
       <c r="Q24" t="n">
-        <v>238.0443986204305</v>
+        <v>237.6346780069378</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9672753579139171</v>
+        <v>0.9600228140819245</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7192418570844614</v>
+        <v>0.756089444370031</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8172532619392153</v>
+        <v>0.9234965601228502</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2609164064366544</v>
+        <v>0.4608657445740663</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7467179190751501</v>
+        <v>0.8849031614314562</v>
       </c>
       <c r="G25" t="n">
-        <v>0.218829832312758</v>
+        <v>0.2673276263121862</v>
       </c>
       <c r="H25" t="n">
-        <v>1.877430994448583</v>
+        <v>1.631031008602442</v>
       </c>
       <c r="I25" t="n">
-        <v>0.7909082154299474</v>
+        <v>0.9988100594053633</v>
       </c>
       <c r="J25" t="n">
-        <v>0.56470713743349</v>
+        <v>0.6546976203069101</v>
       </c>
       <c r="K25" t="n">
-        <v>0.6778075250488788</v>
+        <v>0.8267539293511783</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4610538231744583</v>
+        <v>0.5682775229003006</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4677925098938183</v>
+        <v>0.5170373548518388</v>
       </c>
       <c r="N25" t="n">
-        <v>1.016028396123796</v>
+        <v>1.019580662490486</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4877074055039893</v>
+        <v>0.539048705462755</v>
       </c>
       <c r="P25" t="n">
-        <v>149.0389217452123</v>
+        <v>148.638560615942</v>
       </c>
       <c r="Q25" t="n">
-        <v>238.016856960591</v>
+        <v>237.6164958313207</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9668635259419169</v>
+        <v>0.9596857315571691</v>
       </c>
       <c r="C26" t="n">
-        <v>0.718233346681849</v>
+        <v>0.7550805385249246</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8146416142808817</v>
+        <v>0.922362777301355</v>
       </c>
       <c r="E26" t="n">
-        <v>0.250178061616801</v>
+        <v>0.4587489665620196</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7430731133880768</v>
+        <v>0.8836938680303712</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2215837546058347</v>
+        <v>0.2695816987073477</v>
       </c>
       <c r="H26" t="n">
-        <v>1.884174908154616</v>
+        <v>1.637777566634253</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8022111454340795</v>
+        <v>1.013612448541184</v>
       </c>
       <c r="J26" t="n">
-        <v>0.572911919702782</v>
+        <v>0.6572681294393897</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6875613801696923</v>
+        <v>0.8354404239892578</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4600345860527745</v>
+        <v>0.5553058307164506</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4707268365048191</v>
+        <v>0.5192125756444539</v>
       </c>
       <c r="N26" t="n">
-        <v>1.016230109742735</v>
+        <v>1.019745764135264</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4907666524737139</v>
+        <v>0.5413165299078395</v>
       </c>
       <c r="P26" t="n">
-        <v>149.0139092726735</v>
+        <v>148.6217675707623</v>
       </c>
       <c r="Q26" t="n">
-        <v>237.9918444880521</v>
+        <v>237.5997027861409</v>
       </c>
     </row>
   </sheetData>
